--- a/hw2/perturbation_result/perturbation-4-2.xlsx
+++ b/hw2/perturbation_result/perturbation-4-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\ga-2015-1\hw2\perturbation_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -445,11 +445,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="284502192"/>
-        <c:axId val="284502752"/>
+        <c:axId val="173139936"/>
+        <c:axId val="170875616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="284502192"/>
+        <c:axId val="173139936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +492,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284502752"/>
+        <c:crossAx val="170875616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -500,7 +500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284502752"/>
+        <c:axId val="170875616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,7 +551,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284502192"/>
+        <c:crossAx val="173139936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -960,11 +960,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="278550464"/>
-        <c:axId val="278547104"/>
+        <c:axId val="170881216"/>
+        <c:axId val="170876176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278550464"/>
+        <c:axId val="170881216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1007,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278547104"/>
+        <c:crossAx val="170876176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1015,7 +1015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278547104"/>
+        <c:axId val="170876176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1066,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278550464"/>
+        <c:crossAx val="170881216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2533,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T192"/>
+  <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="U180" sqref="U180"/>
+    <sheetView tabSelected="1" topLeftCell="C166" workbookViewId="0">
+      <selection activeCell="X186" sqref="X186:X192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6941,7 +6941,7 @@
         <v>1515.72</v>
       </c>
       <c r="T72">
-        <f t="shared" ref="T49:T112" si="4">AVERAGE(H49:Q72)</f>
+        <f t="shared" ref="T72:T96" si="4">AVERAGE(H49:Q72)</f>
         <v>2277.2884083333324</v>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
         <v>1721.21</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>4776.2700000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>4929.7700000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>5020.0600000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>3750.39</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>4806.25</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>4906.5200000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>4925.3</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>3838.58</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>1702.22</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>1792.33</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>1711.56</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1730.36</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -8225,8 +8225,11 @@
         <f t="shared" si="6"/>
         <v>4722.28</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U93">
+        <v>429.47335000000044</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -8286,8 +8289,11 @@
         <f t="shared" si="6"/>
         <v>4966.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U94">
+        <v>433.87252083333328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -8347,8 +8353,11 @@
         <f t="shared" si="6"/>
         <v>4932.84</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U95">
+        <v>2277.2884083333324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -8412,6 +8421,9 @@
         <f t="shared" si="4"/>
         <v>3298.2914583333345</v>
       </c>
+      <c r="U96">
+        <v>3298.2914583333345</v>
+      </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97">
@@ -9389,7 +9401,7 @@
         <v>4989.58</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -9450,7 +9462,7 @@
         <v>4923.66</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>4</v>
       </c>
@@ -9511,7 +9523,7 @@
         <v>4885.6400000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>4</v>
       </c>
@@ -9572,7 +9584,7 @@
         <v>5037.8999999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>4</v>
       </c>
@@ -9632,8 +9644,11 @@
         <f t="shared" si="6"/>
         <v>4931.13</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U116">
+        <v>429.47335000000044</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>4</v>
       </c>
@@ -9693,8 +9708,11 @@
         <f t="shared" si="6"/>
         <v>5029.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U117">
+        <v>433.87252083333328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>4</v>
       </c>
@@ -9754,8 +9772,11 @@
         <f t="shared" si="6"/>
         <v>5143.1499999999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U118">
+        <v>2277.2884083333324</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>4</v>
       </c>
@@ -9815,8 +9836,11 @@
         <f t="shared" si="6"/>
         <v>5123.93</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U119">
+        <v>3298.2914583333345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>4</v>
       </c>
@@ -9877,11 +9901,14 @@
         <v>4882.01</v>
       </c>
       <c r="T120">
-        <f t="shared" ref="T113:T176" si="7">AVERAGE(H97:Q120)</f>
+        <f t="shared" ref="T120:T168" si="7">AVERAGE(H97:Q120)</f>
         <v>5144.611958333332</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U120">
+        <v>5144.611958333332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>4</v>
       </c>
@@ -9942,7 +9969,7 @@
         <v>5202.17</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>4</v>
       </c>
@@ -10003,7 +10030,7 @@
         <v>5180.8900000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>4</v>
       </c>
@@ -10064,7 +10091,7 @@
         <v>5219.6499999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>4</v>
       </c>
@@ -10125,7 +10152,7 @@
         <v>5115.2</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4</v>
       </c>
@@ -10186,7 +10213,7 @@
         <v>5199.74</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>4</v>
       </c>
@@ -10247,7 +10274,7 @@
         <v>5226.45</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4</v>
       </c>
@@ -10308,7 +10335,7 @@
         <v>5183.71</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>4</v>
       </c>
@@ -10369,7 +10396,7 @@
         <v>5168.33</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>4</v>
       </c>
@@ -10430,7 +10457,7 @@
         <v>5188.1099999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>4</v>
       </c>
@@ -10491,7 +10518,7 @@
         <v>5163.55</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>4</v>
       </c>
@@ -10552,7 +10579,7 @@
         <v>5144.47</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>4</v>
       </c>
@@ -10613,7 +10640,7 @@
         <v>5175.21</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>4</v>
       </c>
@@ -10674,7 +10701,7 @@
         <v>5106.0600000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>4</v>
       </c>
@@ -10735,7 +10762,7 @@
         <v>5147.51</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>4</v>
       </c>
@@ -10796,7 +10823,7 @@
         <v>5112.6499999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>4</v>
       </c>
@@ -10857,7 +10884,7 @@
         <v>5172.99</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4</v>
       </c>
@@ -10918,7 +10945,7 @@
         <v>5192.75</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4</v>
       </c>
@@ -10979,7 +11006,7 @@
         <v>5241.5600000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4</v>
       </c>
@@ -11039,8 +11066,11 @@
         <f t="shared" si="9"/>
         <v>5262.02</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U139">
+        <v>429.47335000000044</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>4</v>
       </c>
@@ -11100,8 +11130,11 @@
         <f t="shared" si="9"/>
         <v>5203.83</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U140">
+        <v>433.87252083333328</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>4</v>
       </c>
@@ -11161,8 +11194,11 @@
         <f t="shared" si="9"/>
         <v>5180.8900000000003</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U141">
+        <v>2277.2884083333324</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>4</v>
       </c>
@@ -11222,8 +11258,11 @@
         <f t="shared" si="9"/>
         <v>5201.6499999999996</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U142">
+        <v>3298.2914583333345</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>4</v>
       </c>
@@ -11283,8 +11322,11 @@
         <f t="shared" si="9"/>
         <v>5125.1099999999997</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U143">
+        <v>5144.611958333332</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>4</v>
       </c>
@@ -11348,6 +11390,9 @@
         <f t="shared" si="7"/>
         <v>5296.6087083333323</v>
       </c>
+      <c r="U144">
+        <v>5296.6087083333323</v>
+      </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145">
@@ -12325,7 +12370,7 @@
         <v>3808.54</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>4</v>
       </c>
@@ -12386,7 +12431,7 @@
         <v>1183.3800000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>4</v>
       </c>
@@ -12446,8 +12491,11 @@
         <f t="shared" si="9"/>
         <v>1108.1099999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U162">
+        <v>429.47335000000044</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>4</v>
       </c>
@@ -12507,8 +12555,11 @@
         <f t="shared" si="9"/>
         <v>1216.9100000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U163">
+        <v>433.87252083333328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>4</v>
       </c>
@@ -12568,8 +12619,11 @@
         <f t="shared" si="9"/>
         <v>1106.83</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U164">
+        <v>2277.2884083333324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>4</v>
       </c>
@@ -12629,8 +12683,11 @@
         <f t="shared" si="9"/>
         <v>5012.28</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U165">
+        <v>3298.2914583333345</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>4</v>
       </c>
@@ -12690,8 +12747,11 @@
         <f t="shared" si="9"/>
         <v>4799.3500000000004</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U166">
+        <v>5144.611958333332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>4</v>
       </c>
@@ -12751,8 +12811,11 @@
         <f t="shared" si="9"/>
         <v>4943.58</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U167">
+        <v>5296.6087083333323</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>4</v>
       </c>
@@ -12816,8 +12879,11 @@
         <f t="shared" si="7"/>
         <v>3051.0953333333332</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U168">
+        <v>3051.0953333333332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>4</v>
       </c>
@@ -12878,7 +12944,7 @@
         <v>711.01400000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>4</v>
       </c>
@@ -12939,7 +13005,7 @@
         <v>664.42899999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>4</v>
       </c>
@@ -13000,7 +13066,7 @@
         <v>742.85400000000004</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>4</v>
       </c>
@@ -13061,7 +13127,7 @@
         <v>706.47699999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -13122,7 +13188,7 @@
         <v>735.46699999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>4</v>
       </c>
@@ -13183,7 +13249,7 @@
         <v>787.35299999999995</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>4</v>
       </c>
@@ -13244,7 +13310,7 @@
         <v>745.21299999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>4</v>
       </c>
@@ -13305,7 +13371,7 @@
         <v>723.66</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>4</v>
       </c>
@@ -13366,7 +13432,7 @@
         <v>4858.3</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>4</v>
       </c>
@@ -13427,7 +13493,7 @@
         <v>4802.13</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>4</v>
       </c>
@@ -13488,7 +13554,7 @@
         <v>5016.6499999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>4</v>
       </c>
@@ -13549,7 +13615,7 @@
         <v>3581.97</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>4</v>
       </c>
@@ -13610,7 +13676,7 @@
         <v>4973.99</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>4</v>
       </c>
@@ -13671,7 +13737,7 @@
         <v>4834.05</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>4</v>
       </c>
@@ -13732,7 +13798,7 @@
         <v>5076.6000000000004</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>4</v>
       </c>
@@ -13793,7 +13859,7 @@
         <v>3536.06</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>4</v>
       </c>
@@ -13853,8 +13919,23 @@
         <f t="shared" si="9"/>
         <v>764.66499999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U185">
+        <v>429.47335000000044</v>
+      </c>
+      <c r="V185">
+        <f>$V$193*1000/U185</f>
+        <v>52861.172963351462</v>
+      </c>
+      <c r="W185">
+        <f>INT(V185)</f>
+        <v>52861</v>
+      </c>
+      <c r="X185">
+        <f>W185</f>
+        <v>52861</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>4</v>
       </c>
@@ -13914,8 +13995,23 @@
         <f t="shared" si="9"/>
         <v>699.98699999999997</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U186">
+        <v>433.87252083333328</v>
+      </c>
+      <c r="V186">
+        <f t="shared" ref="V186:V192" si="10">$V$193*1000/U186</f>
+        <v>52325.196797196731</v>
+      </c>
+      <c r="W186">
+        <f t="shared" ref="W186:W192" si="11">INT(V186)</f>
+        <v>52325</v>
+      </c>
+      <c r="X186">
+        <f>W186+X185</f>
+        <v>105186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>4</v>
       </c>
@@ -13975,8 +14071,23 @@
         <f t="shared" si="9"/>
         <v>730.16399999999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U187">
+        <v>2277.2884083333324</v>
+      </c>
+      <c r="V187">
+        <f t="shared" si="10"/>
+        <v>9969.0776778313902</v>
+      </c>
+      <c r="W187">
+        <f t="shared" si="11"/>
+        <v>9969</v>
+      </c>
+      <c r="X187">
+        <f t="shared" ref="X187:X192" si="12">W187+X186</f>
+        <v>115155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>4</v>
       </c>
@@ -14036,8 +14147,23 @@
         <f t="shared" si="9"/>
         <v>716.64800000000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U188">
+        <v>3298.2914583333345</v>
+      </c>
+      <c r="V188">
+        <f t="shared" si="10"/>
+        <v>6883.0985145781578</v>
+      </c>
+      <c r="W188">
+        <f t="shared" si="11"/>
+        <v>6883</v>
+      </c>
+      <c r="X188">
+        <f t="shared" si="12"/>
+        <v>122038</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>4</v>
       </c>
@@ -14097,8 +14223,23 @@
         <f t="shared" si="9"/>
         <v>5028.3</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U189">
+        <v>5144.611958333332</v>
+      </c>
+      <c r="V189">
+        <f t="shared" si="10"/>
+        <v>4412.8624707498402</v>
+      </c>
+      <c r="W189">
+        <f t="shared" si="11"/>
+        <v>4412</v>
+      </c>
+      <c r="X189">
+        <f t="shared" si="12"/>
+        <v>126450</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>4</v>
       </c>
@@ -14158,8 +14299,23 @@
         <f t="shared" si="9"/>
         <v>4697.25</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U190">
+        <v>5296.6087083333323</v>
+      </c>
+      <c r="V190">
+        <f t="shared" si="10"/>
+        <v>4286.2265815070405</v>
+      </c>
+      <c r="W190">
+        <f t="shared" si="11"/>
+        <v>4286</v>
+      </c>
+      <c r="X190">
+        <f t="shared" si="12"/>
+        <v>130736</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>4</v>
       </c>
@@ -14219,8 +14375,23 @@
         <f t="shared" si="9"/>
         <v>5089.0600000000004</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U191">
+        <v>3051.0953333333332</v>
+      </c>
+      <c r="V191">
+        <f t="shared" si="10"/>
+        <v>7440.7589921805138</v>
+      </c>
+      <c r="W191">
+        <f t="shared" si="11"/>
+        <v>7440</v>
+      </c>
+      <c r="X191">
+        <f t="shared" si="12"/>
+        <v>138176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>4</v>
       </c>
@@ -14281,8 +14452,29 @@
         <v>3361.86</v>
       </c>
       <c r="T192">
-        <f t="shared" ref="T177:T192" si="10">AVERAGE(H169:Q192)</f>
+        <f t="shared" ref="T192:U192" si="13">AVERAGE(H169:Q192)</f>
         <v>2771.2233000000001</v>
+      </c>
+      <c r="U192">
+        <v>2771.2233000000001</v>
+      </c>
+      <c r="V192">
+        <f t="shared" si="10"/>
+        <v>8192.2178690905203</v>
+      </c>
+      <c r="W192">
+        <f t="shared" si="11"/>
+        <v>8192</v>
+      </c>
+      <c r="X192">
+        <f t="shared" si="12"/>
+        <v>146368</v>
+      </c>
+    </row>
+    <row r="193" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V193">
+        <f>SUM(U185:U192)</f>
+        <v>22702.465037500002</v>
       </c>
     </row>
   </sheetData>

--- a/hw2/perturbation_result/perturbation-4-2.xlsx
+++ b/hw2/perturbation_result/perturbation-4-2.xlsx
@@ -1,31 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\ga-2015-1\hw2\perturbation_result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+  <si>
+    <t>Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need perturbation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perturbation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local optimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,17 +116,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -105,7 +124,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -118,7 +136,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -150,13 +167,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -181,7 +192,6 @@
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -435,29 +445,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173139936"/>
-        <c:axId val="170875616"/>
+        <c:axId val="99494912"/>
+        <c:axId val="101789056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173139936"/>
+        <c:axId val="99494912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -492,19 +494,17 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170875616"/>
+        <c:crossAx val="101789056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170875616"/>
+        <c:axId val="101789056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -522,7 +522,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -551,7 +550,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173139936"/>
+        <c:crossAx val="99494912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,7 +564,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -594,7 +592,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -602,17 +600,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -620,7 +608,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -633,7 +620,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -665,13 +651,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -696,7 +676,6 @@
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -950,29 +929,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="170881216"/>
-        <c:axId val="170876176"/>
+        <c:axId val="110213376"/>
+        <c:axId val="110379008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170881216"/>
+        <c:axId val="110213376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1007,19 +978,17 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170876176"/>
+        <c:crossAx val="110379008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170876176"/>
+        <c:axId val="110379008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1037,7 +1006,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1066,7 +1034,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170881216"/>
+        <c:crossAx val="110213376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1080,7 +1048,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1109,1116 +1076,30 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="차트 11"/>
+        <xdr:cNvPr id="6" name="차트 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2237,20 +1118,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="차트 12"/>
+        <xdr:cNvPr id="7" name="차트 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2313,7 +1194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2348,7 +1229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2525,23 +1406,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C166" workbookViewId="0">
-      <selection activeCell="X186" sqref="X186:X192"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1">
         <v>4</v>
       </c>
@@ -2601,8 +1485,16 @@
         <f>MIN(H1:Q1)</f>
         <v>425.81700000000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1">
+        <f>MEDIAN(H1:Q1)</f>
+        <v>427.05700000000002</v>
+      </c>
+      <c r="U1">
+        <f>STDEV(H1:Q1)</f>
+        <v>1.8277865666708701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>4</v>
       </c>
@@ -2662,8 +1554,16 @@
         <f t="shared" ref="S2:S48" si="1">MIN(H2:Q2)</f>
         <v>425.25799999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <f t="shared" ref="T2:T24" si="2">MEDIAN(H2:Q2)</f>
+        <v>427.39800000000002</v>
+      </c>
+      <c r="U2">
+        <f>STDEV(H2:Q2)</f>
+        <v>2.7675419198092186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2723,8 +1623,16 @@
         <f t="shared" si="1"/>
         <v>425.375</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <f t="shared" si="2"/>
+        <v>427.87950000000001</v>
+      </c>
+      <c r="U3">
+        <f>STDEV(H3:Q3)</f>
+        <v>2.7305586729980109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2784,8 +1692,16 @@
         <f t="shared" si="1"/>
         <v>426.02800000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>427.83450000000005</v>
+      </c>
+      <c r="U4">
+        <f>STDEV(H4:Q4)</f>
+        <v>2.9655196584108401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2845,8 +1761,16 @@
         <f t="shared" si="1"/>
         <v>427.12299999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>428.613</v>
+      </c>
+      <c r="U5">
+        <f>STDEV(H5:Q5)</f>
+        <v>3.1168170088527614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2906,8 +1830,16 @@
         <f t="shared" si="1"/>
         <v>424.22300000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>427.19349999999997</v>
+      </c>
+      <c r="U6">
+        <f>STDEV(H6:Q6)</f>
+        <v>2.5137200873881254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2967,8 +1899,16 @@
         <f t="shared" si="1"/>
         <v>425.42599999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>428.56550000000004</v>
+      </c>
+      <c r="U7">
+        <f>STDEV(H7:Q7)</f>
+        <v>3.5608145822150492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3028,8 +1968,16 @@
         <f t="shared" si="1"/>
         <v>424.14800000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>428.35900000000004</v>
+      </c>
+      <c r="U8">
+        <f>STDEV(H8:Q8)</f>
+        <v>2.7158850020610545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3089,8 +2037,16 @@
         <f t="shared" si="1"/>
         <v>427.11599999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>431.04399999999998</v>
+      </c>
+      <c r="U9">
+        <f>STDEV(H9:Q9)</f>
+        <v>2.7838035311404283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3150,8 +2106,16 @@
         <f t="shared" si="1"/>
         <v>427.137</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>433.98750000000001</v>
+      </c>
+      <c r="U10">
+        <f>STDEV(H10:Q10)</f>
+        <v>2.3478812221480529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3211,8 +2175,16 @@
         <f t="shared" si="1"/>
         <v>428.81700000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>432.10850000000005</v>
+      </c>
+      <c r="U11">
+        <f>STDEV(H11:Q11)</f>
+        <v>2.3232310450877178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3272,8 +2244,16 @@
         <f t="shared" si="1"/>
         <v>425.95499999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>427.85550000000001</v>
+      </c>
+      <c r="U12">
+        <f>STDEV(H12:Q12)</f>
+        <v>2.2213748020237669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3333,8 +2313,16 @@
         <f t="shared" si="1"/>
         <v>423.53399999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>427.577</v>
+      </c>
+      <c r="U13">
+        <f>STDEV(H13:Q13)</f>
+        <v>3.6665396887066612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3394,8 +2382,16 @@
         <f t="shared" si="1"/>
         <v>425.08199999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>428.53550000000001</v>
+      </c>
+      <c r="U14">
+        <f>STDEV(H14:Q14)</f>
+        <v>3.1727249084165638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3455,8 +2451,16 @@
         <f t="shared" si="1"/>
         <v>426.19200000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>428.02549999999997</v>
+      </c>
+      <c r="U15">
+        <f>STDEV(H15:Q15)</f>
+        <v>3.4155475305276246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3516,8 +2520,16 @@
         <f t="shared" si="1"/>
         <v>424.39299999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>428.01300000000003</v>
+      </c>
+      <c r="U16">
+        <f>STDEV(H16:Q16)</f>
+        <v>2.6865393869757495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3577,8 +2589,16 @@
         <f t="shared" si="1"/>
         <v>424.69299999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>426.87099999999998</v>
+      </c>
+      <c r="U17">
+        <f>STDEV(H17:Q17)</f>
+        <v>3.6460545433826215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3638,8 +2658,16 @@
         <f t="shared" si="1"/>
         <v>423.87299999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>428.8365</v>
+      </c>
+      <c r="U18">
+        <f>STDEV(H18:Q18)</f>
+        <v>2.6808296995084033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3699,8 +2727,16 @@
         <f t="shared" si="1"/>
         <v>423.36599999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>428.4545</v>
+      </c>
+      <c r="U19">
+        <f>STDEV(H19:Q19)</f>
+        <v>2.3779661150613252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3760,8 +2796,16 @@
         <f t="shared" si="1"/>
         <v>425.17099999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>428.05099999999999</v>
+      </c>
+      <c r="U20">
+        <f>STDEV(H20:Q20)</f>
+        <v>2.2246634426983078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3821,8 +2865,16 @@
         <f t="shared" si="1"/>
         <v>429.733</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>432.7475</v>
+      </c>
+      <c r="U21">
+        <f>STDEV(H21:Q21)</f>
+        <v>1.3942505593124519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3882,8 +2934,16 @@
         <f t="shared" si="1"/>
         <v>428.90100000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>434.71299999999997</v>
+      </c>
+      <c r="U22">
+        <f>STDEV(H22:Q22)</f>
+        <v>2.3032301568841511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3943,8 +3003,16 @@
         <f t="shared" si="1"/>
         <v>428.59100000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>432.2235</v>
+      </c>
+      <c r="U23">
+        <f>STDEV(H23:Q23)</f>
+        <v>2.6829751003237008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>4</v>
       </c>
@@ -4005,11 +3073,15 @@
         <v>424.90699999999998</v>
       </c>
       <c r="T24">
-        <f>AVERAGE(H1:Q24)</f>
-        <v>429.47335000000044</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>426.81150000000002</v>
+      </c>
+      <c r="U24">
+        <f>STDEV(H24:Q24)</f>
+        <v>3.2847954460280779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4070,7 +3142,7 @@
         <v>431.40699999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4131,7 +3203,7 @@
         <v>431.07499999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4192,7 +3264,7 @@
         <v>431.15300000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4253,7 +3325,7 @@
         <v>433.00900000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4314,7 +3386,7 @@
         <v>431.572</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4375,7 +3447,7 @@
         <v>431.791</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4436,7 +3508,7 @@
         <v>433.53100000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4497,7 +3569,7 @@
         <v>431.51100000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4558,7 +3630,7 @@
         <v>431.78800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>4</v>
       </c>
@@ -4619,7 +3691,7 @@
         <v>429.37299999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>4</v>
       </c>
@@ -4680,7 +3752,7 @@
         <v>433.13900000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4741,7 +3813,7 @@
         <v>427.84100000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>4</v>
       </c>
@@ -4802,7 +3874,7 @@
         <v>432.887</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>4</v>
       </c>
@@ -4863,7 +3935,7 @@
         <v>432.42599999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>4</v>
       </c>
@@ -4924,7 +3996,7 @@
         <v>431.52100000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>4</v>
       </c>
@@ -4985,7 +4057,7 @@
         <v>431.15</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>4</v>
       </c>
@@ -5046,7 +4118,7 @@
         <v>430.57100000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5107,7 +4179,7 @@
         <v>432.77699999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>4</v>
       </c>
@@ -5168,7 +4240,7 @@
         <v>432.45800000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>4</v>
       </c>
@@ -5229,7 +4301,7 @@
         <v>432.54899999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>4</v>
       </c>
@@ -5290,7 +4362,7 @@
         <v>428.55</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>4</v>
       </c>
@@ -5351,7 +4423,7 @@
         <v>432.36599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>4</v>
       </c>
@@ -5412,7 +4484,7 @@
         <v>432.66699999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>4</v>
       </c>
@@ -5477,7 +4549,7 @@
         <v>433.87252083333328</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>4</v>
       </c>
@@ -5530,15 +4602,15 @@
         <v>683.54100000000005</v>
       </c>
       <c r="R49">
-        <f t="shared" ref="R49:R72" si="2">AVERAGE(H49:Q49)</f>
+        <f t="shared" ref="R49:R72" si="3">AVERAGE(H49:Q49)</f>
         <v>631.13550000000009</v>
       </c>
       <c r="S49">
-        <f t="shared" ref="S49:S72" si="3">MIN(H49:Q49)</f>
+        <f t="shared" ref="S49:S72" si="4">MIN(H49:Q49)</f>
         <v>453.452</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>4</v>
       </c>
@@ -5591,15 +4663,15 @@
         <v>649.88300000000004</v>
       </c>
       <c r="R50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>631.98899999999992</v>
       </c>
       <c r="S50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>456.17399999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>4</v>
       </c>
@@ -5652,15 +4724,15 @@
         <v>712.09900000000005</v>
       </c>
       <c r="R51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>648.21550000000002</v>
       </c>
       <c r="S51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>449.65899999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>4</v>
       </c>
@@ -5713,15 +4785,15 @@
         <v>702.279</v>
       </c>
       <c r="R52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>702.34420000000011</v>
       </c>
       <c r="S52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>536.17100000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>4</v>
       </c>
@@ -5774,15 +4846,15 @@
         <v>712.245</v>
       </c>
       <c r="R53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>665.45639999999992</v>
       </c>
       <c r="S53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>501.91800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>4</v>
       </c>
@@ -5835,15 +4907,15 @@
         <v>670.71699999999998</v>
       </c>
       <c r="R54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>678.51229999999998</v>
       </c>
       <c r="S54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>482.84500000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>4</v>
       </c>
@@ -5896,15 +4968,15 @@
         <v>640.74</v>
       </c>
       <c r="R55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>664.73709999999994</v>
       </c>
       <c r="S55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>525.48299999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>4</v>
       </c>
@@ -5957,15 +5029,15 @@
         <v>521.77099999999996</v>
       </c>
       <c r="R56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>669.61209999999983</v>
       </c>
       <c r="S56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>521.77099999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>4</v>
       </c>
@@ -6018,15 +5090,15 @@
         <v>4214.43</v>
       </c>
       <c r="R57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4075.4299999999994</v>
       </c>
       <c r="S57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3749.07</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>4</v>
       </c>
@@ -6079,15 +5151,15 @@
         <v>5022.16</v>
       </c>
       <c r="R58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5025.8349999999991</v>
       </c>
       <c r="S58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4930.8100000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>4</v>
       </c>
@@ -6140,15 +5212,15 @@
         <v>5028.0200000000004</v>
       </c>
       <c r="R59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4414.2060000000001</v>
       </c>
       <c r="S59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3887.63</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>4</v>
       </c>
@@ -6201,15 +5273,15 @@
         <v>2183.52</v>
       </c>
       <c r="R60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2266.13</v>
       </c>
       <c r="S60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1966.03</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>4</v>
       </c>
@@ -6262,15 +5334,15 @@
         <v>4095.43</v>
       </c>
       <c r="R61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3960.85</v>
       </c>
       <c r="S61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3216.8</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>4</v>
       </c>
@@ -6323,15 +5395,15 @@
         <v>5088.1899999999996</v>
       </c>
       <c r="R62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4989.4310000000005</v>
       </c>
       <c r="S62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4652.1499999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>4</v>
       </c>
@@ -6384,15 +5456,15 @@
         <v>5090.4399999999996</v>
       </c>
       <c r="R63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4834.8960000000006</v>
       </c>
       <c r="S63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4521.3100000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>4</v>
       </c>
@@ -6445,15 +5517,15 @@
         <v>2215.0300000000002</v>
       </c>
       <c r="R64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2135.4932999999996</v>
       </c>
       <c r="S64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>734.66300000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>4</v>
       </c>
@@ -6506,15 +5578,15 @@
         <v>609.07600000000002</v>
       </c>
       <c r="R65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>660.38639999999998</v>
       </c>
       <c r="S65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>555.05899999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>4</v>
       </c>
@@ -6567,15 +5639,15 @@
         <v>695.98599999999999</v>
       </c>
       <c r="R66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>619.34939999999995</v>
       </c>
       <c r="S66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>479.53</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>4</v>
       </c>
@@ -6628,15 +5700,15 @@
         <v>765.03</v>
       </c>
       <c r="R67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>666.44359999999983</v>
       </c>
       <c r="S67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>449.31700000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>4</v>
       </c>
@@ -6689,15 +5761,15 @@
         <v>718.55700000000002</v>
       </c>
       <c r="R68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>642.41899999999987</v>
       </c>
       <c r="S68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>480.92899999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>4</v>
       </c>
@@ -6750,15 +5822,15 @@
         <v>4411.67</v>
       </c>
       <c r="R69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3798.5469999999996</v>
       </c>
       <c r="S69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3295.16</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>4</v>
       </c>
@@ -6811,15 +5883,15 @@
         <v>4952.3500000000004</v>
       </c>
       <c r="R70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4921.7700000000004</v>
       </c>
       <c r="S70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4651.66</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>4</v>
       </c>
@@ -6872,15 +5944,15 @@
         <v>4891.6499999999996</v>
       </c>
       <c r="R71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4559.8180000000002</v>
       </c>
       <c r="S71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3617.32</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>4</v>
       </c>
@@ -6933,19 +6005,19 @@
         <v>1774.15</v>
       </c>
       <c r="R72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1791.9150000000002</v>
       </c>
       <c r="S72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1515.72</v>
       </c>
       <c r="T72">
-        <f t="shared" ref="T72:T96" si="4">AVERAGE(H49:Q72)</f>
+        <f t="shared" ref="T72:T96" si="5">AVERAGE(H49:Q72)</f>
         <v>2277.2884083333324</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>4</v>
       </c>
@@ -6998,15 +6070,15 @@
         <v>1883.01</v>
       </c>
       <c r="R73">
-        <f t="shared" ref="R73:R136" si="5">AVERAGE(H73:Q73)</f>
+        <f t="shared" ref="R73:R136" si="6">AVERAGE(H73:Q73)</f>
         <v>1835.7729999999999</v>
       </c>
       <c r="S73">
-        <f t="shared" ref="S73:S136" si="6">MIN(H73:Q73)</f>
+        <f t="shared" ref="S73:S136" si="7">MIN(H73:Q73)</f>
         <v>1731.44</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20">
       <c r="A74">
         <v>4</v>
       </c>
@@ -7059,15 +6131,15 @@
         <v>1892.69</v>
       </c>
       <c r="R74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1825.434</v>
       </c>
       <c r="S74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1721.93</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75">
         <v>4</v>
       </c>
@@ -7120,15 +6192,15 @@
         <v>1894.53</v>
       </c>
       <c r="R75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1875.298</v>
       </c>
       <c r="S75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1751.39</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20">
       <c r="A76">
         <v>4</v>
       </c>
@@ -7181,15 +6253,15 @@
         <v>1862.79</v>
       </c>
       <c r="R76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1826.4750000000004</v>
       </c>
       <c r="S76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1658.08</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20">
       <c r="A77">
         <v>4</v>
       </c>
@@ -7242,15 +6314,15 @@
         <v>1801.38</v>
       </c>
       <c r="R77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792.3110000000001</v>
       </c>
       <c r="S77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1668.86</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20">
       <c r="A78">
         <v>4</v>
       </c>
@@ -7303,15 +6375,15 @@
         <v>1718.59</v>
       </c>
       <c r="R78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1837.6490000000001</v>
       </c>
       <c r="S78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1669.19</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20">
       <c r="A79">
         <v>4</v>
       </c>
@@ -7364,15 +6436,15 @@
         <v>1852.85</v>
       </c>
       <c r="R79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1848.4009999999998</v>
       </c>
       <c r="S79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1703.42</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20">
       <c r="A80">
         <v>4</v>
       </c>
@@ -7425,15 +6497,15 @@
         <v>1875.93</v>
       </c>
       <c r="R80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1823.8439999999998</v>
       </c>
       <c r="S80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1721.21</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>4</v>
       </c>
@@ -7486,15 +6558,15 @@
         <v>4776.2700000000004</v>
       </c>
       <c r="R81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4967.5290000000005</v>
       </c>
       <c r="S81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4776.2700000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>4</v>
       </c>
@@ -7547,15 +6619,15 @@
         <v>5019.99</v>
       </c>
       <c r="R82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5041.366</v>
       </c>
       <c r="S82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4929.7700000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>4</v>
       </c>
@@ -7608,15 +6680,15 @@
         <v>5053.57</v>
       </c>
       <c r="R83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5089.7960000000003</v>
       </c>
       <c r="S83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5020.0600000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>4</v>
       </c>
@@ -7669,15 +6741,15 @@
         <v>4103.05</v>
       </c>
       <c r="R84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4024.8590000000004</v>
       </c>
       <c r="S84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3750.39</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>4</v>
       </c>
@@ -7730,15 +6802,15 @@
         <v>5075.7</v>
       </c>
       <c r="R85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4937.317</v>
       </c>
       <c r="S85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4806.25</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>4</v>
       </c>
@@ -7791,15 +6863,15 @@
         <v>4906.5200000000004</v>
       </c>
       <c r="R86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5040.2280000000001</v>
       </c>
       <c r="S86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4906.5200000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>4</v>
       </c>
@@ -7852,15 +6924,15 @@
         <v>5029.25</v>
       </c>
       <c r="R87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5061.7560000000003</v>
       </c>
       <c r="S87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4925.3</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>4</v>
       </c>
@@ -7913,15 +6985,15 @@
         <v>4079.24</v>
       </c>
       <c r="R88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4070.9159999999997</v>
       </c>
       <c r="S88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3838.58</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>4</v>
       </c>
@@ -7974,15 +7046,15 @@
         <v>1893.54</v>
       </c>
       <c r="R89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1811.8389999999999</v>
       </c>
       <c r="S89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1702.22</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>4</v>
       </c>
@@ -8035,15 +7107,15 @@
         <v>1816.11</v>
       </c>
       <c r="R90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1867.8830000000003</v>
       </c>
       <c r="S90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1792.33</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>4</v>
       </c>
@@ -8096,15 +7168,15 @@
         <v>1792.06</v>
       </c>
       <c r="R91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1830.8070000000002</v>
       </c>
       <c r="S91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1711.56</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>4</v>
       </c>
@@ -8157,15 +7229,15 @@
         <v>1775.86</v>
       </c>
       <c r="R92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1826.741</v>
       </c>
       <c r="S92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1730.36</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>4</v>
       </c>
@@ -8218,18 +7290,18 @@
         <v>4722.28</v>
       </c>
       <c r="R93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4914.4399999999996</v>
       </c>
       <c r="S93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4722.28</v>
       </c>
       <c r="U93">
         <v>429.47335000000044</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>4</v>
       </c>
@@ -8282,18 +7354,18 @@
         <v>4979.32</v>
       </c>
       <c r="R94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5014.2690000000011</v>
       </c>
       <c r="S94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4966.8</v>
       </c>
       <c r="U94">
         <v>433.87252083333328</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>4</v>
       </c>
@@ -8346,18 +7418,18 @@
         <v>5061.53</v>
       </c>
       <c r="R95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5040.1990000000005</v>
       </c>
       <c r="S95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4932.84</v>
       </c>
       <c r="U95">
         <v>2277.2884083333324</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>4</v>
       </c>
@@ -8410,22 +7482,22 @@
         <v>3788.84</v>
       </c>
       <c r="R96">
+        <f t="shared" si="6"/>
+        <v>3953.8650000000007</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="7"/>
+        <v>3788.84</v>
+      </c>
+      <c r="T96">
         <f t="shared" si="5"/>
-        <v>3953.8650000000007</v>
-      </c>
-      <c r="S96">
-        <f t="shared" si="6"/>
-        <v>3788.84</v>
-      </c>
-      <c r="T96">
-        <f t="shared" si="4"/>
         <v>3298.2914583333345</v>
       </c>
       <c r="U96">
         <v>3298.2914583333345</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19">
       <c r="A97">
         <v>4</v>
       </c>
@@ -8478,15 +7550,15 @@
         <v>5010.18</v>
       </c>
       <c r="R97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5107.6909999999998</v>
       </c>
       <c r="S97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4988.6000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19">
       <c r="A98">
         <v>4</v>
       </c>
@@ -8539,15 +7611,15 @@
         <v>5116.3599999999997</v>
       </c>
       <c r="R98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5098.5140000000001</v>
       </c>
       <c r="S98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4981.22</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19">
       <c r="A99">
         <v>4</v>
       </c>
@@ -8600,15 +7672,15 @@
         <v>5023.7700000000004</v>
       </c>
       <c r="R99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5086.2630000000008</v>
       </c>
       <c r="S99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4919.62</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19">
       <c r="A100">
         <v>4</v>
       </c>
@@ -8661,15 +7733,15 @@
         <v>5084.1099999999997</v>
       </c>
       <c r="R100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5145.246000000001</v>
       </c>
       <c r="S100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5036.8999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19">
       <c r="A101">
         <v>4</v>
       </c>
@@ -8722,15 +7794,15 @@
         <v>5106.74</v>
       </c>
       <c r="R101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5139.3420000000006</v>
       </c>
       <c r="S101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4956.34</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19">
       <c r="A102">
         <v>4</v>
       </c>
@@ -8783,15 +7855,15 @@
         <v>5091.82</v>
       </c>
       <c r="R102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5160.6090000000004</v>
       </c>
       <c r="S102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5007.88</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="A103">
         <v>4</v>
       </c>
@@ -8844,15 +7916,15 @@
         <v>5216.53</v>
       </c>
       <c r="R103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5154.4719999999998</v>
       </c>
       <c r="S103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5030.96</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19">
       <c r="A104">
         <v>4</v>
       </c>
@@ -8905,15 +7977,15 @@
         <v>5099.49</v>
       </c>
       <c r="R104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5113.764000000001</v>
       </c>
       <c r="S104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4921.83</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19">
       <c r="A105">
         <v>4</v>
       </c>
@@ -8966,15 +8038,15 @@
         <v>4991.57</v>
       </c>
       <c r="R105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5086.51</v>
       </c>
       <c r="S105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4991.57</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19">
       <c r="A106">
         <v>4</v>
       </c>
@@ -9027,15 +8099,15 @@
         <v>5251.61</v>
       </c>
       <c r="R106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5214.4940000000006</v>
       </c>
       <c r="S106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5146.22</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107">
         <v>4</v>
       </c>
@@ -9088,15 +8160,15 @@
         <v>5121.09</v>
       </c>
       <c r="R107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5215.5119999999997</v>
       </c>
       <c r="S107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5121.09</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19">
       <c r="A108">
         <v>4</v>
       </c>
@@ -9149,15 +8221,15 @@
         <v>5202.66</v>
       </c>
       <c r="R108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5156.8440000000001</v>
       </c>
       <c r="S108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5024.6099999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19">
       <c r="A109">
         <v>4</v>
       </c>
@@ -9210,15 +8282,15 @@
         <v>5072.54</v>
       </c>
       <c r="R109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5109.8119999999999</v>
       </c>
       <c r="S109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4991.45</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19">
       <c r="A110">
         <v>4</v>
       </c>
@@ -9271,15 +8343,15 @@
         <v>5265.26</v>
       </c>
       <c r="R110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5216.5780000000004</v>
       </c>
       <c r="S110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5134.13</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111">
         <v>4</v>
       </c>
@@ -9332,15 +8404,15 @@
         <v>5237.84</v>
       </c>
       <c r="R111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5196.6380000000008</v>
       </c>
       <c r="S111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5041.3999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="A112">
         <v>4</v>
       </c>
@@ -9393,15 +8465,15 @@
         <v>5129.2700000000004</v>
       </c>
       <c r="R112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5116.2690000000002</v>
       </c>
       <c r="S112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4989.58</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>4</v>
       </c>
@@ -9454,15 +8526,15 @@
         <v>5098.8999999999996</v>
       </c>
       <c r="R113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5074.4800000000014</v>
       </c>
       <c r="S113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4923.66</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>4</v>
       </c>
@@ -9515,15 +8587,15 @@
         <v>4885.6400000000003</v>
       </c>
       <c r="R114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5054.4169999999995</v>
       </c>
       <c r="S114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4885.6400000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>4</v>
       </c>
@@ -9576,15 +8648,15 @@
         <v>5137.6000000000004</v>
       </c>
       <c r="R115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5156.741</v>
       </c>
       <c r="S115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5037.8999999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>4</v>
       </c>
@@ -9637,18 +8709,18 @@
         <v>5044.21</v>
       </c>
       <c r="R116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5106.5830000000005</v>
       </c>
       <c r="S116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4931.13</v>
       </c>
       <c r="U116">
         <v>429.47335000000044</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>4</v>
       </c>
@@ -9701,18 +8773,18 @@
         <v>5031.25</v>
       </c>
       <c r="R117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5120.5769999999993</v>
       </c>
       <c r="S117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5029.8</v>
       </c>
       <c r="U117">
         <v>433.87252083333328</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>4</v>
       </c>
@@ -9765,18 +8837,18 @@
         <v>5305.39</v>
       </c>
       <c r="R118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5281.7469999999994</v>
       </c>
       <c r="S118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5143.1499999999996</v>
       </c>
       <c r="U118">
         <v>2277.2884083333324</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>4</v>
       </c>
@@ -9829,18 +8901,18 @@
         <v>5274.45</v>
       </c>
       <c r="R119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5278.1260000000002</v>
       </c>
       <c r="S119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5123.93</v>
       </c>
       <c r="U119">
         <v>3298.2914583333345</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>4</v>
       </c>
@@ -9893,22 +8965,22 @@
         <v>4882.01</v>
       </c>
       <c r="R120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5079.4579999999996</v>
       </c>
       <c r="S120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4882.01</v>
       </c>
       <c r="T120">
-        <f t="shared" ref="T120:T168" si="7">AVERAGE(H97:Q120)</f>
+        <f t="shared" ref="T120:T168" si="8">AVERAGE(H97:Q120)</f>
         <v>5144.611958333332</v>
       </c>
       <c r="U120">
         <v>5144.611958333332</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>4</v>
       </c>
@@ -9961,15 +9033,15 @@
         <v>5343.15</v>
       </c>
       <c r="R121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5353.5</v>
       </c>
       <c r="S121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5202.17</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>4</v>
       </c>
@@ -10022,15 +9094,15 @@
         <v>5210.29</v>
       </c>
       <c r="R122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5274.9119999999994</v>
       </c>
       <c r="S122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5180.8900000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>4</v>
       </c>
@@ -10083,15 +9155,15 @@
         <v>5334.87</v>
       </c>
       <c r="R123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5318.4989999999998</v>
       </c>
       <c r="S123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5219.6499999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>4</v>
       </c>
@@ -10144,15 +9216,15 @@
         <v>5300.95</v>
       </c>
       <c r="R124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5293.5779999999995</v>
       </c>
       <c r="S124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5115.2</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>4</v>
       </c>
@@ -10205,15 +9277,15 @@
         <v>5305.78</v>
       </c>
       <c r="R125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5329.4479999999994</v>
       </c>
       <c r="S125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5199.74</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>4</v>
       </c>
@@ -10266,15 +9338,15 @@
         <v>5285.21</v>
       </c>
       <c r="R126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5378.076</v>
       </c>
       <c r="S126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5226.45</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21">
       <c r="A127">
         <v>4</v>
       </c>
@@ -10327,15 +9399,15 @@
         <v>5183.71</v>
       </c>
       <c r="R127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5300.5830000000005</v>
       </c>
       <c r="S127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5183.71</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="A128">
         <v>4</v>
       </c>
@@ -10388,15 +9460,15 @@
         <v>5336.39</v>
       </c>
       <c r="R128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5307.2150000000011</v>
       </c>
       <c r="S128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5168.33</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21">
       <c r="A129">
         <v>4</v>
       </c>
@@ -10449,15 +9521,15 @@
         <v>5260.2</v>
       </c>
       <c r="R129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5286.3130000000001</v>
       </c>
       <c r="S129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5188.1099999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21">
       <c r="A130">
         <v>4</v>
       </c>
@@ -10510,15 +9582,15 @@
         <v>5285.74</v>
       </c>
       <c r="R130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5242.518</v>
       </c>
       <c r="S130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5163.55</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21">
       <c r="A131">
         <v>4</v>
       </c>
@@ -10571,15 +9643,15 @@
         <v>5193.49</v>
       </c>
       <c r="R131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5232.8239999999996</v>
       </c>
       <c r="S131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5144.47</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21">
       <c r="A132">
         <v>4</v>
       </c>
@@ -10632,15 +9704,15 @@
         <v>5175.21</v>
       </c>
       <c r="R132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5330.5630000000001</v>
       </c>
       <c r="S132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5175.21</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21">
       <c r="A133">
         <v>4</v>
       </c>
@@ -10693,15 +9765,15 @@
         <v>5225.82</v>
       </c>
       <c r="R133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5269.1829999999991</v>
       </c>
       <c r="S133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5106.0600000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134">
         <v>4</v>
       </c>
@@ -10754,15 +9826,15 @@
         <v>5243.84</v>
       </c>
       <c r="R134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5236.2199999999993</v>
       </c>
       <c r="S134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5147.51</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21">
       <c r="A135">
         <v>4</v>
       </c>
@@ -10815,15 +9887,15 @@
         <v>5242.3500000000004</v>
       </c>
       <c r="R135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5232.8419999999987</v>
       </c>
       <c r="S135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5112.6499999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21">
       <c r="A136">
         <v>4</v>
       </c>
@@ -10876,15 +9948,15 @@
         <v>5296.33</v>
       </c>
       <c r="R136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5283.2049999999999</v>
       </c>
       <c r="S136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5172.99</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21">
       <c r="A137">
         <v>4</v>
       </c>
@@ -10937,15 +10009,15 @@
         <v>5381.26</v>
       </c>
       <c r="R137">
-        <f t="shared" ref="R137:R192" si="8">AVERAGE(H137:Q137)</f>
+        <f t="shared" ref="R137:R192" si="9">AVERAGE(H137:Q137)</f>
         <v>5321.0500000000011</v>
       </c>
       <c r="S137">
-        <f t="shared" ref="S137:S192" si="9">MIN(H137:Q137)</f>
+        <f t="shared" ref="S137:S192" si="10">MIN(H137:Q137)</f>
         <v>5192.75</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21">
       <c r="A138">
         <v>4</v>
       </c>
@@ -10998,15 +10070,15 @@
         <v>5427.41</v>
       </c>
       <c r="R138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5341.8380000000006</v>
       </c>
       <c r="S138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5241.5600000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21">
       <c r="A139">
         <v>4</v>
       </c>
@@ -11059,18 +10131,18 @@
         <v>5349.35</v>
       </c>
       <c r="R139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5353.6149999999998</v>
       </c>
       <c r="S139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5262.02</v>
       </c>
       <c r="U139">
         <v>429.47335000000044</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21">
       <c r="A140">
         <v>4</v>
       </c>
@@ -11123,18 +10195,18 @@
         <v>5231.16</v>
       </c>
       <c r="R140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5294.67</v>
       </c>
       <c r="S140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5203.83</v>
       </c>
       <c r="U140">
         <v>433.87252083333328</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21">
       <c r="A141">
         <v>4</v>
       </c>
@@ -11187,18 +10259,18 @@
         <v>5367.58</v>
       </c>
       <c r="R141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5289.5380000000005</v>
       </c>
       <c r="S141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5180.8900000000003</v>
       </c>
       <c r="U141">
         <v>2277.2884083333324</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21">
       <c r="A142">
         <v>4</v>
       </c>
@@ -11251,18 +10323,18 @@
         <v>5293.99</v>
       </c>
       <c r="R142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5309.7349999999988</v>
       </c>
       <c r="S142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5201.6499999999996</v>
       </c>
       <c r="U142">
         <v>3298.2914583333345</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21">
       <c r="A143">
         <v>4</v>
       </c>
@@ -11315,18 +10387,18 @@
         <v>5227.1899999999996</v>
       </c>
       <c r="R143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5277.3619999999992</v>
       </c>
       <c r="S143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5125.1099999999997</v>
       </c>
       <c r="U143">
         <v>5144.611958333332</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21">
       <c r="A144">
         <v>4</v>
       </c>
@@ -11379,22 +10451,22 @@
         <v>5142.47</v>
       </c>
       <c r="R144">
+        <f t="shared" si="9"/>
+        <v>5261.3219999999992</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="10"/>
+        <v>5142.47</v>
+      </c>
+      <c r="T144">
         <f t="shared" si="8"/>
-        <v>5261.3219999999992</v>
-      </c>
-      <c r="S144">
-        <f t="shared" si="9"/>
-        <v>5142.47</v>
-      </c>
-      <c r="T144">
-        <f t="shared" si="7"/>
         <v>5296.6087083333323</v>
       </c>
       <c r="U144">
         <v>5296.6087083333323</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19">
       <c r="A145">
         <v>4</v>
       </c>
@@ -11447,15 +10519,15 @@
         <v>1394.45</v>
       </c>
       <c r="R145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1368.8209999999999</v>
       </c>
       <c r="S145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1144.31</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19">
       <c r="A146">
         <v>4</v>
       </c>
@@ -11508,15 +10580,15 @@
         <v>1243.57</v>
       </c>
       <c r="R146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1315.1879999999999</v>
       </c>
       <c r="S146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1165.6600000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19">
       <c r="A147">
         <v>4</v>
       </c>
@@ -11569,15 +10641,15 @@
         <v>1287.74</v>
       </c>
       <c r="R147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1355.058</v>
       </c>
       <c r="S147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1287.74</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19">
       <c r="A148">
         <v>4</v>
       </c>
@@ -11630,15 +10702,15 @@
         <v>1382.88</v>
       </c>
       <c r="R148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1349.8139999999999</v>
       </c>
       <c r="S148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1249.79</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19">
       <c r="A149">
         <v>4</v>
       </c>
@@ -11691,15 +10763,15 @@
         <v>1358.08</v>
       </c>
       <c r="R149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1331.5170000000003</v>
       </c>
       <c r="S149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1225.1500000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19">
       <c r="A150">
         <v>4</v>
       </c>
@@ -11752,15 +10824,15 @@
         <v>1314.58</v>
       </c>
       <c r="R150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1376.422</v>
       </c>
       <c r="S150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1230.94</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19">
       <c r="A151">
         <v>4</v>
       </c>
@@ -11813,15 +10885,15 @@
         <v>1378.8</v>
       </c>
       <c r="R151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1353.5569999999998</v>
       </c>
       <c r="S151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1154.1500000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19">
       <c r="A152">
         <v>4</v>
       </c>
@@ -11874,15 +10946,15 @@
         <v>1359.29</v>
       </c>
       <c r="R152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1388.8229999999999</v>
       </c>
       <c r="S152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1201.69</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19">
       <c r="A153">
         <v>4</v>
       </c>
@@ -11935,15 +11007,15 @@
         <v>5114.58</v>
       </c>
       <c r="R153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4997.1260000000002</v>
       </c>
       <c r="S153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4879.68</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19">
       <c r="A154">
         <v>4</v>
       </c>
@@ -11996,15 +11068,15 @@
         <v>5019.12</v>
       </c>
       <c r="R154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5034.491</v>
       </c>
       <c r="S154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4987.7700000000004</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19">
       <c r="A155">
         <v>4</v>
       </c>
@@ -12057,15 +11129,15 @@
         <v>5143.76</v>
       </c>
       <c r="R155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5110.6449999999995</v>
       </c>
       <c r="S155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5021.63</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19">
       <c r="A156">
         <v>4</v>
       </c>
@@ -12118,15 +11190,15 @@
         <v>3845.99</v>
       </c>
       <c r="R156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3864.6629999999996</v>
       </c>
       <c r="S156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3720.42</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19">
       <c r="A157">
         <v>4</v>
       </c>
@@ -12179,15 +11251,15 @@
         <v>5028.51</v>
       </c>
       <c r="R157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5030.7760000000017</v>
       </c>
       <c r="S157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4896.0200000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19">
       <c r="A158">
         <v>4</v>
       </c>
@@ -12240,15 +11312,15 @@
         <v>5053.29</v>
       </c>
       <c r="R158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5013.5519999999997</v>
       </c>
       <c r="S158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4789.7</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19">
       <c r="A159">
         <v>4</v>
       </c>
@@ -12301,15 +11373,15 @@
         <v>5126.38</v>
       </c>
       <c r="R159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5086.6849999999995</v>
       </c>
       <c r="S159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5021.96</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19">
       <c r="A160">
         <v>4</v>
       </c>
@@ -12362,15 +11434,15 @@
         <v>3843.82</v>
       </c>
       <c r="R160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3877.6969999999992</v>
       </c>
       <c r="S160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3808.54</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:32">
       <c r="A161">
         <v>4</v>
       </c>
@@ -12423,15 +11495,15 @@
         <v>1321.65</v>
       </c>
       <c r="R161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1336.7660000000001</v>
       </c>
       <c r="S161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1183.3800000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:32">
       <c r="A162">
         <v>4</v>
       </c>
@@ -12484,18 +11556,18 @@
         <v>1368.99</v>
       </c>
       <c r="R162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1309.7639999999999</v>
       </c>
       <c r="S162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1108.1099999999999</v>
       </c>
       <c r="U162">
         <v>429.47335000000044</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:32">
       <c r="A163">
         <v>4</v>
       </c>
@@ -12548,18 +11620,18 @@
         <v>1368.12</v>
       </c>
       <c r="R163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1350.4749999999999</v>
       </c>
       <c r="S163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1216.9100000000001</v>
       </c>
       <c r="U163">
         <v>433.87252083333328</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:32">
       <c r="A164">
         <v>4</v>
       </c>
@@ -12612,18 +11684,18 @@
         <v>1260.1199999999999</v>
       </c>
       <c r="R164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1313.0819999999999</v>
       </c>
       <c r="S164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1106.83</v>
       </c>
       <c r="U164">
         <v>2277.2884083333324</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:32">
       <c r="A165">
         <v>4</v>
       </c>
@@ -12676,18 +11748,18 @@
         <v>5094.6000000000004</v>
       </c>
       <c r="R165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5088.2479999999996</v>
       </c>
       <c r="S165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5012.28</v>
       </c>
       <c r="U165">
         <v>3298.2914583333345</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:32">
       <c r="A166">
         <v>4</v>
       </c>
@@ -12740,18 +11812,18 @@
         <v>5116.3999999999996</v>
       </c>
       <c r="R166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4990.4070000000011</v>
       </c>
       <c r="S166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4799.3500000000004</v>
       </c>
       <c r="U166">
         <v>5144.611958333332</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:32">
       <c r="A167">
         <v>4</v>
       </c>
@@ -12804,18 +11876,45 @@
         <v>5085.1499999999996</v>
       </c>
       <c r="R167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5094.6089999999995</v>
       </c>
       <c r="S167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4943.58</v>
       </c>
       <c r="U167">
         <v>5296.6087083333323</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X167" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>2</v>
+      </c>
+      <c r="AB167">
+        <v>3</v>
+      </c>
+      <c r="AC167">
+        <v>4</v>
+      </c>
+      <c r="AD167">
+        <v>5</v>
+      </c>
+      <c r="AE167">
+        <v>6</v>
+      </c>
+      <c r="AF167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:32">
       <c r="A168">
         <v>4</v>
       </c>
@@ -12868,22 +11967,57 @@
         <v>3817.11</v>
       </c>
       <c r="R168">
+        <f t="shared" si="9"/>
+        <v>3888.1020000000003</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="10"/>
+        <v>3776.9</v>
+      </c>
+      <c r="T168">
         <f t="shared" si="8"/>
-        <v>3888.1020000000003</v>
-      </c>
-      <c r="S168">
-        <f t="shared" si="9"/>
-        <v>3776.9</v>
-      </c>
-      <c r="T168">
-        <f t="shared" si="7"/>
         <v>3051.0953333333332</v>
       </c>
       <c r="U168">
         <v>3051.0953333333332</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X168" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y168">
+        <f>AVERAGE($H$1:$Q$24)</f>
+        <v>429.47335000000044</v>
+      </c>
+      <c r="Z168">
+        <f>AVERAGE($H$25:$Q$48)</f>
+        <v>433.87252083333328</v>
+      </c>
+      <c r="AA168">
+        <f>AVERAGE($H$49:$Q$72)</f>
+        <v>2277.2884083333324</v>
+      </c>
+      <c r="AB168">
+        <f>AVERAGE($H$73:$Q$96)</f>
+        <v>3298.2914583333345</v>
+      </c>
+      <c r="AC168">
+        <f>AVERAGE($H$97:$Q$120)</f>
+        <v>5144.611958333332</v>
+      </c>
+      <c r="AD168">
+        <f>AVERAGE($H$121:$Q$144)</f>
+        <v>5296.6087083333323</v>
+      </c>
+      <c r="AE168">
+        <f>AVERAGE($H$145:$Q$168)</f>
+        <v>3051.0953333333332</v>
+      </c>
+      <c r="AF168">
+        <f>AVERAGE($H$169:$Q$192)</f>
+        <v>2771.2233000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:32">
       <c r="A169">
         <v>4</v>
       </c>
@@ -12936,15 +12070,50 @@
         <v>989.02599999999995</v>
       </c>
       <c r="R169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>857.2487000000001</v>
       </c>
       <c r="S169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>711.01400000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X169" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y169">
+        <f t="shared" ref="Y169:Y170" si="11">MIN($H$1:$Q$24)</f>
+        <v>423.36599999999999</v>
+      </c>
+      <c r="Z169">
+        <f t="shared" ref="Z169:Z170" si="12">MIN($H$25:$Q$48)</f>
+        <v>427.84100000000001</v>
+      </c>
+      <c r="AA169">
+        <f t="shared" ref="AA169:AA170" si="13">MIN($H$49:$Q$72)</f>
+        <v>449.31700000000001</v>
+      </c>
+      <c r="AB169">
+        <f t="shared" ref="AB169:AB170" si="14">MIN($H$73:$Q$96)</f>
+        <v>1658.08</v>
+      </c>
+      <c r="AC169">
+        <f t="shared" ref="AC169:AC170" si="15">MIN($H$97:$Q$120)</f>
+        <v>4882.01</v>
+      </c>
+      <c r="AD169">
+        <f t="shared" ref="AD169:AD170" si="16">MIN($H$121:$Q$144)</f>
+        <v>5106.0600000000004</v>
+      </c>
+      <c r="AE169">
+        <f t="shared" ref="AE169:AE170" si="17">MIN($H$145:$Q$168)</f>
+        <v>1106.83</v>
+      </c>
+      <c r="AF169">
+        <f t="shared" ref="AF169:AF170" si="18">MIN($H$169:$Q$192)</f>
+        <v>664.42899999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:32">
       <c r="A170">
         <v>4</v>
       </c>
@@ -12997,15 +12166,50 @@
         <v>761.697</v>
       </c>
       <c r="R170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>790.20609999999999</v>
       </c>
       <c r="S170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>664.42899999999997</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X170" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <f>MEDIAN($H$1:$Q$24)</f>
+        <v>428.54750000000001</v>
+      </c>
+      <c r="Z170">
+        <f>MEDIAN($H$25:$Q$48)</f>
+        <v>433.947</v>
+      </c>
+      <c r="AA170">
+        <f>MEDIAN($H$49:$Q$72)</f>
+        <v>997.96100000000001</v>
+      </c>
+      <c r="AB170">
+        <f>MEDIAN($H$73:$Q$96)</f>
+        <v>2933.74</v>
+      </c>
+      <c r="AC170">
+        <f>MEDIAN($H$97:$Q$120)</f>
+        <v>5134.335</v>
+      </c>
+      <c r="AD170">
+        <f>MEDIAN($H$121:$Q$144)</f>
+        <v>5301.62</v>
+      </c>
+      <c r="AE170">
+        <f>MEDIAN($H$145:$Q$168)</f>
+        <v>2696.6</v>
+      </c>
+      <c r="AF170">
+        <f>MEDIAN($H$169:$Q$192)</f>
+        <v>2222.7200000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32">
       <c r="A171">
         <v>4</v>
       </c>
@@ -13058,15 +12262,50 @@
         <v>742.85400000000004</v>
       </c>
       <c r="R171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>847.29329999999993</v>
       </c>
       <c r="S171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>742.85400000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X171" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y171">
+        <f>STDEV($H$1:$Q$24)</f>
+        <v>3.3086926241074659</v>
+      </c>
+      <c r="Z171">
+        <f>STDEV($H$25:$Q$48)</f>
+        <v>1.5074482608364199</v>
+      </c>
+      <c r="AA171">
+        <f>STDEV($H$49:$Q$72)</f>
+        <v>1824.9231983451477</v>
+      </c>
+      <c r="AB171">
+        <f>STDEV($H$73:$Q$96)</f>
+        <v>1501.8948126564896</v>
+      </c>
+      <c r="AC171">
+        <f>STDEV($H$97:$Q$120)</f>
+        <v>103.74061132671241</v>
+      </c>
+      <c r="AD171">
+        <f>STDEV($H$121:$Q$144)</f>
+        <v>80.858917593524794</v>
+      </c>
+      <c r="AE171">
+        <f>STDEV($H$145:$Q$168)</f>
+        <v>1748.7198162631769</v>
+      </c>
+      <c r="AF171">
+        <f>STDEV($H$169:$Q$192)</f>
+        <v>1993.5169417475165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:32">
       <c r="A172">
         <v>4</v>
       </c>
@@ -13119,15 +12358,15 @@
         <v>815.73299999999995</v>
       </c>
       <c r="R172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>811.32779999999991</v>
       </c>
       <c r="S172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>706.47699999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:32">
       <c r="A173">
         <v>4</v>
       </c>
@@ -13180,15 +12419,15 @@
         <v>735.46699999999998</v>
       </c>
       <c r="R173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>843.48500000000001</v>
       </c>
       <c r="S173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>735.46699999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:32">
       <c r="A174">
         <v>4</v>
       </c>
@@ -13241,15 +12480,15 @@
         <v>787.35299999999995</v>
       </c>
       <c r="R174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>844.2328</v>
       </c>
       <c r="S174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>787.35299999999995</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:32">
       <c r="A175">
         <v>4</v>
       </c>
@@ -13302,15 +12541,15 @@
         <v>779.83900000000006</v>
       </c>
       <c r="R175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>804.16999999999985</v>
       </c>
       <c r="S175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>745.21299999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:32">
       <c r="A176">
         <v>4</v>
       </c>
@@ -13363,15 +12602,15 @@
         <v>853.28399999999999</v>
       </c>
       <c r="R176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>815.11950000000002</v>
       </c>
       <c r="S176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>723.66</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:24">
       <c r="A177">
         <v>4</v>
       </c>
@@ -13424,15 +12663,15 @@
         <v>5058.3900000000003</v>
       </c>
       <c r="R177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5018.2220000000007</v>
       </c>
       <c r="S177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4858.3</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:24">
       <c r="A178">
         <v>4</v>
       </c>
@@ -13485,15 +12724,15 @@
         <v>5081.17</v>
       </c>
       <c r="R178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5023.2910000000011</v>
       </c>
       <c r="S178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4802.13</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:24">
       <c r="A179">
         <v>4</v>
       </c>
@@ -13546,15 +12785,15 @@
         <v>5041.41</v>
       </c>
       <c r="R179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5092.4380000000001</v>
       </c>
       <c r="S179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5016.6499999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24">
       <c r="A180">
         <v>4</v>
       </c>
@@ -13607,15 +12846,15 @@
         <v>3651.04</v>
       </c>
       <c r="R180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3755.2889999999998</v>
       </c>
       <c r="S180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3581.97</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24">
       <c r="A181">
         <v>4</v>
       </c>
@@ -13668,15 +12907,15 @@
         <v>5091.54</v>
       </c>
       <c r="R181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5054.4230000000007</v>
       </c>
       <c r="S181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4973.99</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24">
       <c r="A182">
         <v>4</v>
       </c>
@@ -13729,15 +12968,15 @@
         <v>5066.24</v>
       </c>
       <c r="R182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4997.7999999999993</v>
       </c>
       <c r="S182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4834.05</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24">
       <c r="A183">
         <v>4</v>
       </c>
@@ -13790,15 +13029,15 @@
         <v>5076.6000000000004</v>
       </c>
       <c r="R183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5109.268</v>
       </c>
       <c r="S183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5076.6000000000004</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24">
       <c r="A184">
         <v>4</v>
       </c>
@@ -13851,15 +13090,15 @@
         <v>3536.06</v>
       </c>
       <c r="R184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3699.3739999999998</v>
       </c>
       <c r="S184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3536.06</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24">
       <c r="A185">
         <v>4</v>
       </c>
@@ -13912,11 +13151,11 @@
         <v>981.68399999999997</v>
       </c>
       <c r="R185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>861.26419999999996</v>
       </c>
       <c r="S185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>764.66499999999996</v>
       </c>
       <c r="U185">
@@ -13935,7 +13174,7 @@
         <v>52861</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:24">
       <c r="A186">
         <v>4</v>
       </c>
@@ -13988,22 +13227,22 @@
         <v>796.23199999999997</v>
       </c>
       <c r="R186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>829.16139999999996</v>
       </c>
       <c r="S186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>699.98699999999997</v>
       </c>
       <c r="U186">
         <v>433.87252083333328</v>
       </c>
       <c r="V186">
-        <f t="shared" ref="V186:V192" si="10">$V$193*1000/U186</f>
+        <f t="shared" ref="V186:V192" si="19">$V$193*1000/U186</f>
         <v>52325.196797196731</v>
       </c>
       <c r="W186">
-        <f t="shared" ref="W186:W192" si="11">INT(V186)</f>
+        <f t="shared" ref="W186:W192" si="20">INT(V186)</f>
         <v>52325</v>
       </c>
       <c r="X186">
@@ -14011,7 +13250,7 @@
         <v>105186</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:24">
       <c r="A187">
         <v>4</v>
       </c>
@@ -14064,30 +13303,30 @@
         <v>826.17200000000003</v>
       </c>
       <c r="R187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>835.3605</v>
       </c>
       <c r="S187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>730.16399999999999</v>
       </c>
       <c r="U187">
         <v>2277.2884083333324</v>
       </c>
       <c r="V187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>9969.0776778313902</v>
       </c>
       <c r="W187">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>9969</v>
       </c>
       <c r="X187">
-        <f t="shared" ref="X187:X192" si="12">W187+X186</f>
+        <f t="shared" ref="X187:X192" si="21">W187+X186</f>
         <v>115155</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:24">
       <c r="A188">
         <v>4</v>
       </c>
@@ -14140,30 +13379,30 @@
         <v>776.13699999999994</v>
       </c>
       <c r="R188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>811.7648999999999</v>
       </c>
       <c r="S188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>716.64800000000002</v>
       </c>
       <c r="U188">
         <v>3298.2914583333345</v>
       </c>
       <c r="V188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6883.0985145781578</v>
       </c>
       <c r="W188">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>6883</v>
       </c>
       <c r="X188">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>122038</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:24">
       <c r="A189">
         <v>4</v>
       </c>
@@ -14216,30 +13455,30 @@
         <v>5137.8999999999996</v>
       </c>
       <c r="R189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5106.5010000000002</v>
       </c>
       <c r="S189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5028.3</v>
       </c>
       <c r="U189">
         <v>5144.611958333332</v>
       </c>
       <c r="V189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>4412.8624707498402</v>
       </c>
       <c r="W189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4412</v>
       </c>
       <c r="X189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>126450</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:24">
       <c r="A190">
         <v>4</v>
       </c>
@@ -14292,30 +13531,30 @@
         <v>5033.4799999999996</v>
       </c>
       <c r="R190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4995.5259999999998</v>
       </c>
       <c r="S190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4697.25</v>
       </c>
       <c r="U190">
         <v>5296.6087083333323</v>
       </c>
       <c r="V190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>4286.2265815070405</v>
       </c>
       <c r="W190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4286</v>
       </c>
       <c r="X190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>130736</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:24">
       <c r="A191">
         <v>4</v>
       </c>
@@ -14368,30 +13607,30 @@
         <v>5102.29</v>
       </c>
       <c r="R191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5126.9390000000003</v>
       </c>
       <c r="S191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5089.0600000000004</v>
       </c>
       <c r="U191">
         <v>3051.0953333333332</v>
       </c>
       <c r="V191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>7440.7589921805138</v>
       </c>
       <c r="W191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>7440</v>
       </c>
       <c r="X191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>138176</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:24">
       <c r="A192">
         <v>4</v>
       </c>
@@ -14444,34 +13683,34 @@
         <v>3651.34</v>
       </c>
       <c r="R192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3579.654</v>
       </c>
       <c r="S192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3361.86</v>
       </c>
       <c r="T192">
-        <f t="shared" ref="T192:U192" si="13">AVERAGE(H169:Q192)</f>
+        <f t="shared" ref="T192" si="22">AVERAGE(H169:Q192)</f>
         <v>2771.2233000000001</v>
       </c>
       <c r="U192">
         <v>2771.2233000000001</v>
       </c>
       <c r="V192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>8192.2178690905203</v>
       </c>
       <c r="W192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>8192</v>
       </c>
       <c r="X192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>146368</v>
       </c>
     </row>
-    <row r="193" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="193" spans="22:22">
       <c r="V193">
         <f>SUM(U185:U192)</f>
         <v>22702.465037500002</v>
@@ -14483,4 +13722,545 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>427.59379999999999</v>
+      </c>
+      <c r="D3">
+        <v>428.27949999999993</v>
+      </c>
+      <c r="E3">
+        <v>428.49099999999999</v>
+      </c>
+      <c r="F3">
+        <v>428.67920000000004</v>
+      </c>
+      <c r="G3">
+        <v>429.61239999999998</v>
+      </c>
+      <c r="H3">
+        <v>427.49329999999998</v>
+      </c>
+      <c r="I3">
+        <v>429.38059999999996</v>
+      </c>
+      <c r="J3">
+        <v>428.29570000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>425.81700000000001</v>
+      </c>
+      <c r="D4">
+        <v>425.25799999999998</v>
+      </c>
+      <c r="E4">
+        <v>425.375</v>
+      </c>
+      <c r="F4">
+        <v>426.02800000000002</v>
+      </c>
+      <c r="G4">
+        <v>427.12299999999999</v>
+      </c>
+      <c r="H4">
+        <v>424.22300000000001</v>
+      </c>
+      <c r="I4">
+        <v>425.42599999999999</v>
+      </c>
+      <c r="J4">
+        <v>424.14800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>427.05700000000002</v>
+      </c>
+      <c r="D5">
+        <v>427.39800000000002</v>
+      </c>
+      <c r="E5">
+        <v>427.87950000000001</v>
+      </c>
+      <c r="F5">
+        <v>427.83450000000005</v>
+      </c>
+      <c r="G5">
+        <v>428.613</v>
+      </c>
+      <c r="H5">
+        <v>427.19349999999997</v>
+      </c>
+      <c r="I5">
+        <v>428.56550000000004</v>
+      </c>
+      <c r="J5">
+        <v>428.35900000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1.8277865666708701</v>
+      </c>
+      <c r="D6">
+        <v>2.7675419198092186</v>
+      </c>
+      <c r="E6">
+        <v>2.7305586729980109</v>
+      </c>
+      <c r="F6">
+        <v>2.9655196584108401</v>
+      </c>
+      <c r="G6">
+        <v>3.1168170088527614</v>
+      </c>
+      <c r="H6">
+        <v>2.5137200873881254</v>
+      </c>
+      <c r="I6">
+        <v>3.5608145822150492</v>
+      </c>
+      <c r="J6">
+        <v>2.7158850020610545</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>430.84889999999996</v>
+      </c>
+      <c r="D9">
+        <v>433.19530000000003</v>
+      </c>
+      <c r="E9">
+        <v>432.49660000000006</v>
+      </c>
+      <c r="F9">
+        <v>428.52330000000001</v>
+      </c>
+      <c r="G9">
+        <v>428.09280000000001</v>
+      </c>
+      <c r="H9">
+        <v>428.61629999999997</v>
+      </c>
+      <c r="I9">
+        <v>428.71159999999998</v>
+      </c>
+      <c r="J9">
+        <v>428.17510000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>427.11599999999999</v>
+      </c>
+      <c r="D10">
+        <v>427.137</v>
+      </c>
+      <c r="E10">
+        <v>428.81700000000001</v>
+      </c>
+      <c r="F10">
+        <v>425.95499999999998</v>
+      </c>
+      <c r="G10">
+        <v>423.53399999999999</v>
+      </c>
+      <c r="H10">
+        <v>425.08199999999999</v>
+      </c>
+      <c r="I10">
+        <v>426.19200000000001</v>
+      </c>
+      <c r="J10">
+        <v>424.39299999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>431.04399999999998</v>
+      </c>
+      <c r="D11">
+        <v>433.98750000000001</v>
+      </c>
+      <c r="E11">
+        <v>432.10850000000005</v>
+      </c>
+      <c r="F11">
+        <v>427.85550000000001</v>
+      </c>
+      <c r="G11">
+        <v>427.577</v>
+      </c>
+      <c r="H11">
+        <v>428.53550000000001</v>
+      </c>
+      <c r="I11">
+        <v>428.02549999999997</v>
+      </c>
+      <c r="J11">
+        <v>428.01300000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2.7838035311404283</v>
+      </c>
+      <c r="D12">
+        <v>2.3478812221480529</v>
+      </c>
+      <c r="E12">
+        <v>2.3232310450877178</v>
+      </c>
+      <c r="F12">
+        <v>2.2213748020237669</v>
+      </c>
+      <c r="G12">
+        <v>3.6665396887066612</v>
+      </c>
+      <c r="H12">
+        <v>3.1727249084165638</v>
+      </c>
+      <c r="I12">
+        <v>3.4155475305276246</v>
+      </c>
+      <c r="J12">
+        <v>2.6865393869757495</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>427.96420000000001</v>
+      </c>
+      <c r="D15">
+        <v>428.8929</v>
+      </c>
+      <c r="E15">
+        <v>428.25480000000005</v>
+      </c>
+      <c r="F15">
+        <v>428.22910000000002</v>
+      </c>
+      <c r="G15">
+        <v>432.56320000000005</v>
+      </c>
+      <c r="H15">
+        <v>434.4366</v>
+      </c>
+      <c r="I15">
+        <v>432.6004999999999</v>
+      </c>
+      <c r="J15">
+        <v>427.93369999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>424.69299999999998</v>
+      </c>
+      <c r="D16">
+        <v>423.87299999999999</v>
+      </c>
+      <c r="E16">
+        <v>423.36599999999999</v>
+      </c>
+      <c r="F16">
+        <v>425.17099999999999</v>
+      </c>
+      <c r="G16">
+        <v>429.733</v>
+      </c>
+      <c r="H16">
+        <v>428.90100000000001</v>
+      </c>
+      <c r="I16">
+        <v>428.59100000000001</v>
+      </c>
+      <c r="J16">
+        <v>424.90699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>426.87099999999998</v>
+      </c>
+      <c r="D17">
+        <v>428.8365</v>
+      </c>
+      <c r="E17">
+        <v>428.4545</v>
+      </c>
+      <c r="F17">
+        <v>428.05099999999999</v>
+      </c>
+      <c r="G17">
+        <v>432.7475</v>
+      </c>
+      <c r="H17">
+        <v>434.71299999999997</v>
+      </c>
+      <c r="I17">
+        <v>432.2235</v>
+      </c>
+      <c r="J17">
+        <v>426.81150000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3.6460545433826215</v>
+      </c>
+      <c r="D18">
+        <v>2.6808296995084033</v>
+      </c>
+      <c r="E18">
+        <v>2.3779661150613252</v>
+      </c>
+      <c r="F18">
+        <v>2.2246634426983078</v>
+      </c>
+      <c r="G18">
+        <v>1.3942505593124519</v>
+      </c>
+      <c r="H18">
+        <v>2.3032301568841511</v>
+      </c>
+      <c r="I18">
+        <v>2.6829751003237008</v>
+      </c>
+      <c r="J18">
+        <v>3.2847954460280779</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>